--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tct\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E56FCC-B01A-4BB8-8867-16F63FA217E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAD563-6E83-40B8-8B8C-D43C68BB191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0746CEA4-9C2D-486D-ABFB-D312B185A67E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="1127">
   <si>
     <t>Level 0</t>
   </si>
@@ -3307,13 +3307,207 @@
   </si>
   <si>
     <t>level5</t>
+  </si>
+  <si>
+    <t>Quy trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy trình tiếp đón </t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009087235.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy trình khám bệnh </t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009131060.webp</t>
+  </si>
+  <si>
+    <t>Quy trình tài chính</t>
+  </si>
+  <si>
+    <t>Quy trình tài chính - ngoại trú</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009229802.webp</t>
+  </si>
+  <si>
+    <t>Quy trình tài chính - nột trú</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009266743.webp</t>
+  </si>
+  <si>
+    <t>Quy trình xét nghiệm</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009382654.webp</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009433989.webp</t>
+  </si>
+  <si>
+    <t>Quy trình chẩn đoán hình ảnh</t>
+  </si>
+  <si>
+    <t>Quy trình phẫu thuật, thủ thuật</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009484875.webp</t>
+  </si>
+  <si>
+    <t>Quy trình duyệt cận lâm sàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Một số bệnh viện áp dụng cơ chế chặn các chỉ định cận lâm sàng phải qua bước duyệt của thu ngân như sau:  - Các chỉ định xét nghiệm, CĐHA của khoa khám bệnh, khoa cấp cứu sẽ được gửi đến thu ngân duyệt. Thu ngân duyệt thực hiện các cận lâm sàng bằng 2 cách:  
+--&gt; Cách 1: Thu tiền các chỉ định này--&gt; những chỉ định nào được thu tiền (màu xanh) thì sẽ coi như được duyệt và được hiển thị tại các phòng thực hiện XN, CĐHA tương ứng.  
+--&gt; Cách 2: Duyệt thực hiện cận lâm sàng --&gt; thu ngân click chuột phải vào bệnh nhân--&gt;chọn “Duyệt thực hiện cận lâm sàng” --&gt; chọn các xét nghiệm muốn duyệt cho thực hiện --&gt; sau đó các xét nghiệm này sẽ được hiển thị tại các phòng thực hiện XN, CĐHA tương ứng. 
+Cách 2 được áp dụng cho các bệnh nhân được BHYT thanh toán 100% (hoặc thời điểm chỉ 
+định được thanh toán 100% do chi phí &lt; 15% lương tối thiểu). Hoặc khi thu ngân cảm thấy 
+số tiền cần thu quá ít, không cần thiết phải viết hóa đơn đỏ nên có thể duyệt cho thực hiện 
+cận lâm sàng trước, sau này sẽ thu gộp với tiền thuốc sau.  - 
+Các khoa phòng thực hiện cận lâm sàng lưu ý là nếu nhận được phiếu chỉ định nhưng không 
+thấy chỉ định trên hệ thống  là do thu ngân chưa thu tiền hoặc chưa duyệt.  </t>
+  </si>
+  <si>
+    <t>Quy trình quản lý ngày giường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có ba mô hình quản lý ngày giường như sau:  
+a. Quản lý ngày giường bằng tay  - 
+Mô hình này không quản lý chính xác bệnh nhân nằm ở giường nào.  - 
+Khi bệnh nhân kết thúc điều trị ở khoa  điều dưỡng chỉ định bằng tay tên loại dịch vụ 
+ngày giường, số ngày nằm cho bệnh nhân  để hệ thống tính tiền ngày giường.  
+b. Quản lý ngày giường tự động  - 
+Mô hình này không quản lý chính xác bệnh nhân nằm ở giường nào.  - - - - 
+Khi bệnh nhân kết thúc điều trị ở khoa  hệ thống sẽ tự động tính toán tiền giường theo các 
+chế độ sau:  
+Công thức chung: số ngày giường = ngày ra – ngày vào + 1  
+Đối với các bệnh nhân nằm ở các giường thuộc các khoa khác nhau, các khoa tự xếp ngày 
+giường cho bệnh nhân (chủ động). 
+Tiền ngày giường = số ngày x đơn giá  
+c. Quản lý ngày giường theo giờ  - 
+Mô hình này sẽ quản lý chính xác bệnh nhân đang nằm ở giường nào. Thường áp dụng cho 
+các giường yêu cầu (giá cao, cơ sở vật chất tốt, chăm sóc tốt)  - 
+Khoa phải nhập danh sách giường vào hệ thống, cài đặt giá giường, số lượng BN tối đa nằm 
+trên giường đó. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy trình quản lý thuốc, vật tư tiêu hao </t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009777666.webp</t>
+  </si>
+  <si>
+    <t>Quy trình Cấp phát thuốc cho bệnh nhân Ngoại trú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy trình Cấp phát thuốc cho Bệnh nhân nội trú </t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762009911955.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quy trình tủ trực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các khoa, phòng đều phải sử dụng tủ trực để lĩnh các thuốc/vật tư không cấp phát không cấp 
+phát lẻ. Mỗi tủ trực đều được lãnh đạo bệnh viện ban hành danh mục thuốc/vật tư trong tủ trực 
+đó vào đầu năm, gồm các thông tin:  - - - - 
+Tên thuốc/vật tư (nếu là thuốc thì dùng tên hoạt chất)  
+Số lượng  
+Đơn vị  
+Cơ số tủ trực  
+a. Chỉ định vào tủ trực 
+Khi chỉ định thuốc, vật tư  user có thẻ chọn kho “Tủ trực” của khoa phòng mình để lấy 
+thuốc từ tủ trực. Thông thường user sẽ lấy thuốc, vật tư sử dụng trước, sau đó mới nhập số 
+lượng đã sử dụng vào hệ thống.  
+b. Bù tủ trực theo cơ số 
+Cuối ngày hoặc vài ngày/cuối tuần hoặc khi nào cần thiết  user sẽ mở module quản lý thuốc 
+tủ trực  click chọn Bù tủ trực  hệ thống sẽ quét toàn bộ tồn kho thuốc hiện tại trong tủ trực 
+rồi so sánh với cơ số  từ đó tính toán ra số lượng thuốc/vật tư đã tiêu hao  đó chính là số 
+lượng cần bù gửi lên khoa dược/vật tư. 
+--&gt; Chú ý: các thuốc không thể lĩnh lẻ, nếu thực hiện lĩnh sẽ luôn được bù chẵn. Ví dụ: Insulin là 1 
+chai 1000 đơn vị, đã dùng 800 đơn vị  khi bù sẽ bù về chẵn 1 chai là 1000 đơn vị  tồn 
+trong kho sau khi bù là 1200 đơn vị.  
+Khuyến cáo : Bệnh viện quy định các thuốc lĩnh lẻ chỉ được kê/bù bằng tủ trực  tiết kiệm 
+thuốc cho bệnh viện, tránh thất thoát lãng phí. 
+c. Thay đổi cơ số tủ trực  
+Chỉ có IT bệnh viện mới được quyền thay đổi cơ số tủ trực. Truy cập vào kho thuốc  mở 
+danh mục thuốc trong kho  click vào thuốc để thay đổi cơ số. 
+d. Hoàn trả thuốc tủ trực 
+Thông thưởng để đảm bảo chặt chẽ thì sẽ cài đặt option không cho phép hoàn trả thuốc tủ trực. 
+Nếu chỉ định nhầm thuốc tủ trực thì có thể sửa lại chỉ định (chỉ có thể thực hiện trước khi đóng 
+bệnh án). </t>
+  </si>
+  <si>
+    <t>Quy trình lưu trữ HSBA giấy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Lưu trữ theo mã lưu trữ cố định:  - 
+BN đến viện khám nhiều lần thì sẽ có nhiều HSBA, tất cả HSBA đó gộp chung vào 1 kẹp 
+hồ sơ, bên ngoài dán mã lưu trữ.  - - - - 
+Mã lưu trữ không thay đổi suốt đời bệnh nhân, khi đã có mã lưu trữ thì lần sau vào viện sẽ 
+dùng lại mã cũ.  
+Trong các tủ chứa hồ sơ sẽ chứa lần lượt theo thứ tự mã lưu trữ. 
+Lợi ích:  
+o Rất nhanh chóng tìm lại tất cả HSBA của 1 bệnh nhân.  
+Nhược điểm:  
+o Không gian tủ lưu trữ cũ bị mở rộng ra do phải chứa thêm các HSBA mới vào chỗ cũ. 
+Gây ra xáo trộn công tác lưu trữ, phải dịch chuyển các kẹp hồ sơ đi nhiều. Phải dự phòng 
+chỗ cho các tủ nên không xếp đầy tủ được (lãng phí không gian lưu trữ).
+b. Lưu trữ theo mã lưu trữ tăng tuần tự - 
+Phiên bản: 3.5 
+Mỗi khi BN vào viện sẽ được lập 1 HSBA và được cấp phát 1 mã lưu trữ mới tăng tuần tự 
++1, mã lưu trữ này chỉ sử dụng một lần, lần sau khi BN đến vào viện thì lại sử dụng mã lưu 
+trữ khác.  - - - 
+Các HSBA sẽ được lưu trong các tủ theo tuần tự.  
+Ưu điểm:  
+o Các tủ cũ có thể nhét đầy các HSBA, không phải để chừa ra để nhét thêm HSBA  
+o Không gian ở tủ cũ cũng không bị đòi hỏi mở rộng ra để nhét bổ sung HSBA.  
+Nhược điểm:  
+o Khi muốn tìm lại tất cả HSBA của 1 bệnh nhân thì vất vả hơn.  
+c. Lưu trữ theo mã lưu trữ tăng tuần tự theo khoa phòng_NOTOK - 
+Mỗi khi BN vào viện sẽ được lập 1 HSBA và được cấp phát 1 mã lưu trữ mới theo mã của 
+khoa phòng đó và tăng tuần tự +1. Mã này chỉ sử dụng 1 lần, lần sau BN vào viện sẽ dùng 
+mã lưu trữ khác. Ví dụ:  
+o Khoa nội (mã 01) tăng từ 1301000001  1301999999  
+o Khoa ngoại (mã 02) tăng từ 130200001  1302999999  - - - 
+Các HSBA sẽ được lưu trong các tủ theo tuần tự theo từng khoa.  
+Ưu điểm:  
+o Các tủ cũ có thể nhét đầy các HSBA, không phải để chừa ra để nhét thêm HSBA  
+o Không gian ở tủ cũ cũng không bị đòi hỏi mở rộng ra để nhét bổ xung HSBA.  
+o Mỗi khoa có khu vực tủ riêng dễ tìm kiếm  
+Nhược điểm:  
+o Khi muốn tìm lại tất cả HSBA của 1 bệnh nhân thì vất vả hơn.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy trình ngoại trú tổng thể </t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762010103984.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762010139128.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh nhân BHYT thì không cần đóng tiền tạm ứng là có thể đi thực hiện cận lâm sàng ngay 
+sau khi BS chỉ định.  - - - 
+--&gt;Bệnh nhân viện phí thì có thể tạm ứng, hoặc luôn đóng tiền trước khi thực hiện dịch vụ  
+- Nếu BN không tạm ứng/không đóng tiền thì sẽ không có tên ở phòng cận lâm sàng --&gt; nên 
+không thể thực hiện cận lâm sàng. Chức năng này giúp BV tránh thất thoát doanh thu 
+(tránh trường hợp BN chưa đóng tiền đã làm dịch vụ --&gt; sau đó bỏ về không thanh toán).  G1136 Một số BV cho BN viện phí đóng tạm ứng để đỡ phải đi đóng tiền nhiều lần.  </t>
+  </si>
+  <si>
+    <t>Quy trình nội trú tổng thể</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762010286015.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3337,8 +3531,17 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3348,6 +3551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,10 +3570,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3377,8 +3587,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3691,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6CEF25-C312-4D78-BA8F-0A651979EAD0}">
-  <dimension ref="A1:H1109"/>
+  <dimension ref="A1:H1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A1110" workbookViewId="0">
+      <selection activeCell="B1117" sqref="B1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,8 +3919,8 @@
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="72.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3731,7 +3945,7 @@
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3835,6 +4049,8 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3849,6 +4065,7 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3863,6 +4080,7 @@
       <c r="D10" t="s">
         <v>197</v>
       </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6033,7 +6251,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1090</v>
       </c>
@@ -6047,7 +6265,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1090</v>
       </c>
@@ -6061,7 +6279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1090</v>
       </c>
@@ -6075,7 +6293,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1090</v>
       </c>
@@ -6089,7 +6307,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1090</v>
       </c>
@@ -6103,7 +6321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1090</v>
       </c>
@@ -6117,7 +6335,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1090</v>
       </c>
@@ -6131,7 +6349,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1090</v>
       </c>
@@ -6145,7 +6363,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1090</v>
       </c>
@@ -6159,7 +6377,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1090</v>
       </c>
@@ -6173,7 +6391,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1090</v>
       </c>
@@ -6187,7 +6405,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1090</v>
       </c>
@@ -6201,7 +6419,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1090</v>
       </c>
@@ -6215,7 +6433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1090</v>
       </c>
@@ -6229,7 +6447,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1090</v>
       </c>
@@ -6243,7 +6461,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1090</v>
       </c>
@@ -6258,8 +6476,9 @@
       </c>
       <c r="F176" s="7"/>
       <c r="G176" s="4"/>
-    </row>
-    <row r="177" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="10"/>
+    </row>
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1090</v>
       </c>
@@ -6274,8 +6493,9 @@
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="10"/>
+    </row>
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1090</v>
       </c>
@@ -6290,8 +6510,9 @@
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="10"/>
+    </row>
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1090</v>
       </c>
@@ -6306,8 +6527,9 @@
       </c>
       <c r="F179" s="7"/>
       <c r="G179" s="4"/>
-    </row>
-    <row r="180" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="10"/>
+    </row>
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1090</v>
       </c>
@@ -6322,8 +6544,9 @@
       </c>
       <c r="F180" s="7"/>
       <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H180" s="10"/>
+    </row>
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1090</v>
       </c>
@@ -6338,8 +6561,9 @@
       </c>
       <c r="F181" s="7"/>
       <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H181" s="10"/>
+    </row>
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1090</v>
       </c>
@@ -6354,8 +6578,9 @@
       </c>
       <c r="F182" s="7"/>
       <c r="G182" s="4"/>
-    </row>
-    <row r="183" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="10"/>
+    </row>
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1090</v>
       </c>
@@ -6370,8 +6595,9 @@
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="10"/>
+    </row>
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1090</v>
       </c>
@@ -6386,8 +6612,9 @@
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="4"/>
-    </row>
-    <row r="185" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="10"/>
+    </row>
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1090</v>
       </c>
@@ -6402,8 +6629,9 @@
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="10"/>
+    </row>
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1090</v>
       </c>
@@ -6418,8 +6646,9 @@
       </c>
       <c r="F186" s="7"/>
       <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H186" s="10"/>
+    </row>
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1090</v>
       </c>
@@ -6434,8 +6663,9 @@
       </c>
       <c r="F187" s="7"/>
       <c r="G187" s="4"/>
-    </row>
-    <row r="188" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="10"/>
+    </row>
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1090</v>
       </c>
@@ -6450,8 +6680,9 @@
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="10"/>
+    </row>
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1090</v>
       </c>
@@ -6466,8 +6697,9 @@
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="4"/>
-    </row>
-    <row r="190" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="10"/>
+    </row>
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1090</v>
       </c>
@@ -6482,8 +6714,9 @@
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="10"/>
+    </row>
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1090</v>
       </c>
@@ -6498,8 +6731,9 @@
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="10"/>
+    </row>
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1090</v>
       </c>
@@ -6514,8 +6748,9 @@
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="10"/>
+    </row>
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1090</v>
       </c>
@@ -6530,8 +6765,9 @@
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="10"/>
+    </row>
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1090</v>
       </c>
@@ -6546,8 +6782,9 @@
       </c>
       <c r="F194" s="7"/>
       <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="10"/>
+    </row>
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1090</v>
       </c>
@@ -6562,8 +6799,9 @@
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1090</v>
       </c>
@@ -6577,7 +6815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1090</v>
       </c>
@@ -6591,7 +6829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1090</v>
       </c>
@@ -6605,7 +6843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1090</v>
       </c>
@@ -6619,7 +6857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1090</v>
       </c>
@@ -6633,7 +6871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1090</v>
       </c>
@@ -6647,7 +6885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1090</v>
       </c>
@@ -6661,7 +6899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1090</v>
       </c>
@@ -6675,7 +6913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1090</v>
       </c>
@@ -6689,7 +6927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1090</v>
       </c>
@@ -6703,7 +6941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1090</v>
       </c>
@@ -6717,7 +6955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1090</v>
       </c>
@@ -6731,7 +6969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1090</v>
       </c>
@@ -16799,7 +17037,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>1089</v>
       </c>
@@ -16807,7 +17045,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>1089</v>
       </c>
@@ -16815,7 +17053,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>1089</v>
       </c>
@@ -16823,7 +17061,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>1089</v>
       </c>
@@ -16831,17 +17069,211 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>1089</v>
       </c>
       <c r="B1109" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H1110" s="9" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H1111" s="9" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H1112" s="9" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H1113" s="9" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H1114" s="9" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H1115" s="9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1116" s="3"/>
+      <c r="H1116" s="9" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G1117" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G1118" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H1119" s="9" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H1120" s="9" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G1121" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G1122" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G1123" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H1123" s="9" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H1124" s="9" t="s">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H935" xr:uid="{8E6CEF25-C312-4D78-BA8F-0A651979EAD0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1110" r:id="rId1" xr:uid="{FFEA2132-9903-40AA-A7D1-F51DAD70EEB1}"/>
+    <hyperlink ref="H1111" r:id="rId2" xr:uid="{A6265CB1-0820-4DFD-813A-87B56471EC5B}"/>
+    <hyperlink ref="H1112" r:id="rId3" xr:uid="{BC60F556-C54A-4FF7-B582-630B36D7B269}"/>
+    <hyperlink ref="H1113" r:id="rId4" xr:uid="{597DABBF-F03C-4417-909D-9CD4BD9C63F1}"/>
+    <hyperlink ref="H1114" r:id="rId5" xr:uid="{604E1A1A-3D5E-46F0-A1EF-254D615D88C5}"/>
+    <hyperlink ref="H1115" r:id="rId6" xr:uid="{8BDADC04-B440-4324-92A6-68C1EC421F54}"/>
+    <hyperlink ref="H1116" r:id="rId7" xr:uid="{D5F18F65-001F-4F83-B026-2A279352F22C}"/>
+    <hyperlink ref="H1119" r:id="rId8" xr:uid="{85304F20-D7BB-4166-81BD-1BA7CC7B5D62}"/>
+    <hyperlink ref="H1120" r:id="rId9" xr:uid="{003C6045-FA4D-488A-BA82-B91385BC8DFE}"/>
+    <hyperlink ref="H1123" r:id="rId10" xr:uid="{E8484D3B-8C2D-4A4B-9A31-973AC2415FDE}"/>
+    <hyperlink ref="H1124" r:id="rId11" xr:uid="{5FE16C17-5D08-4603-9660-D29011EAF172}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tct\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAD563-6E83-40B8-8B8C-D43C68BB191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F947C77-D3EF-4F63-B6E9-16533F2E224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0746CEA4-9C2D-486D-ABFB-D312B185A67E}"/>
   </bookViews>
@@ -3907,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6CEF25-C312-4D78-BA8F-0A651979EAD0}">
   <dimension ref="A1:H1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1110" workbookViewId="0">
-      <selection activeCell="B1117" sqref="B1117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1123" sqref="A1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -451,10 +451,10 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>44444</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Giy_hn_khm_1762098234476_0.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Giy_hn_khm_1762098235932_1.webp</v>
       </c>
     </row>
     <row r="3">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -477,10 +477,10 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>33333</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Phiu_cng_khai_dch_v_1762098334306_0.webp</v>
       </c>
     </row>
     <row r="4">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -1519,10 +1519,10 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>6666666666666</v>
       </c>
       <c r="H43" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_n_Giy_hn_khm_doc_1762098707463_0.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_n_Giy_hn_khm_doc_1762098708977_1.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_n_Giy_hn_khm_doc_1762098711189_2.webp</v>
       </c>
     </row>
     <row r="44">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -477,10 +477,10 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>33333</v>
+        <v>888888</v>
       </c>
       <c r="H3" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Phiu_cng_khai_dch_v_1762098334306_0.webp</v>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Phiu_cng_khai_dch_v_1762098334306_0.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Phiu_cng_khai_dch_v_1762099550346_0.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Phiu_cng_khai_dch_v_1762099551899_1.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Phiu_cng_khai_dch_v_1762099553145_2.webp</v>
       </c>
     </row>
     <row r="4">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -451,10 +451,10 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>44444</v>
+        <v>66666666666</v>
       </c>
       <c r="H2" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Giy_hn_khm_1762098234476_0.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Giy_hn_khm_1762098235932_1.webp</v>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099834218_pasted_1762099828065.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099835780_pasted_1762099830029.webp</v>
       </c>
     </row>
     <row r="3">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -5029,10 +5029,10 @@
         <v/>
       </c>
       <c r="G178" t="str">
-        <v/>
+        <v>666666666</v>
       </c>
       <c r="H178" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099909720_pasted_1762099907496.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099911074_pasted_1762099908582.webp</v>
       </c>
     </row>
     <row r="179">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -451,10 +451,10 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>66666666666</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099834218_pasted_1762099828065.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099835780_pasted_1762099830029.webp</v>
+        <v/>
       </c>
     </row>
     <row r="3">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -1519,10 +1519,10 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>6666666666666</v>
+        <v/>
       </c>
       <c r="H43" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_n_Giy_hn_khm_doc_1762098707463_0.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_n_Giy_hn_khm_doc_1762098708977_1.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_n_Giy_hn_khm_doc_1762098711189_2.webp</v>
+        <v/>
       </c>
     </row>
     <row r="44">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -5029,10 +5029,10 @@
         <v/>
       </c>
       <c r="G178" t="str">
-        <v>666666666</v>
+        <v/>
       </c>
       <c r="H178" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099909720_pasted_1762099907496.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762099911074_pasted_1762099908582.webp</v>
+        <v/>
       </c>
     </row>
     <row r="179">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -451,10 +451,10 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>test</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Giy_hn_khm_1762100675506_0.webp; https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Ni_tr_iu_tr_ni_tr_In_k_s_Giy_hn_khm_1762100678147_1.webp</v>
       </c>
     </row>
     <row r="3">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -633,10 +633,10 @@
         <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>11111</v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762102389634_Screenshot_3.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762102391059_Screenshot_2.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762102392294_pasted_1762102388220.webp</v>
       </c>
     </row>
     <row r="10">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -633,10 +633,10 @@
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>11111</v>
+        <v/>
       </c>
       <c r="H9" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762102389634_Screenshot_3.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762102391059_Screenshot_2.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762102392294_pasted_1762102388220.webp</v>
+        <v/>
       </c>
     </row>
     <row r="10">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1143"/>
+  <dimension ref="A1:H1144"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30251,9 +30251,35 @@
         <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762017495834.webp</v>
       </c>
     </row>
+    <row r="1144">
+      <c r="A1144" t="str">
+        <v>Hướng dẫn sử dụng</v>
+      </c>
+      <c r="B1144" t="str">
+        <v/>
+      </c>
+      <c r="C1144" t="str">
+        <v/>
+      </c>
+      <c r="D1144" t="str">
+        <v/>
+      </c>
+      <c r="E1144" t="str">
+        <v/>
+      </c>
+      <c r="F1144" t="str">
+        <v/>
+      </c>
+      <c r="G1144" t="str">
+        <v/>
+      </c>
+      <c r="H1144" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1143"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1144"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1144"/>
+  <dimension ref="A1:H1145"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30277,9 +30277,50 @@
         <v/>
       </c>
     </row>
+    <row r="1145" xml:space="preserve">
+      <c r="A1145" t="str">
+        <v>Hướng dẫn sử dụng liên thông HIS - LIS</v>
+      </c>
+      <c r="B1145" t="str">
+        <v/>
+      </c>
+      <c r="C1145" t="str">
+        <v/>
+      </c>
+      <c r="D1145" t="str">
+        <v/>
+      </c>
+      <c r="E1145" t="str">
+        <v/>
+      </c>
+      <c r="F1145" t="str">
+        <v/>
+      </c>
+      <c r="G1145" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bước 1: Tạo Tài khoản tích hợp trên his:    
+  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC13_QL_NguoiDung  
+  + cấu hình "Mức truy cập": Nghiệp vụ  
+  + Loại tài khoản: Tích hợp  
+Bước 2: Phần quyền dữ liệu người dùng:    
+  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC10_user_role  
+  + Theo quyền dữ liệu được cấu hình theo khoa phòng thực hiện  
+Bước 3: Cấu hình tham số:    
+  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC02_CAUHINHLIS_UPDATE_STATUS
+LIS_DELETE_REQUEST  api/v2/DeleteRequest  Địa chỉ service để xóa chỉ định khỏi hệ thống LIS              
+LIS_SEND_REQUEST  api/v2/SendRequest  Địa chỉ service để gửi chỉ định sang hệ thống LIS              
+LIS_GET_RESULT_SET  api/v2/GetResultSet  Địa chỉ service lấy kết quả từ hệ thống LIS              
+LIS_SERVICE_DOMAIN_NAME  https://lisdkhnm.vnptsoftware.vn/  Tên địa chỉ domain service LIS              
+LIS_SECRET_KEY  123456  Mật khẩu truy cập hệ thống VNPT LIS              
+LIS_CONNECTION_TYPE = 1
+LIS_DIACHI_BENHNHAN = bhyt hoặc bn</v>
+      </c>
+      <c r="H1145" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1144"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1145"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1145"/>
+  <dimension ref="A1:H1146"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30318,9 +30318,35 @@
         <v/>
       </c>
     </row>
+    <row r="1146">
+      <c r="A1146" t="str">
+        <v>HDSD</v>
+      </c>
+      <c r="B1146" t="str">
+        <v/>
+      </c>
+      <c r="C1146" t="str">
+        <v/>
+      </c>
+      <c r="D1146" t="str">
+        <v/>
+      </c>
+      <c r="E1146" t="str">
+        <v/>
+      </c>
+      <c r="F1146" t="str">
+        <v/>
+      </c>
+      <c r="G1146" t="str">
+        <v>222222</v>
+      </c>
+      <c r="H1146" t="str">
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762123770823_pasted_1762123765387.webp</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1145"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1146"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -30271,10 +30271,10 @@
         <v/>
       </c>
       <c r="G1144" t="str">
-        <v/>
+        <v>222222222222</v>
       </c>
       <c r="H1144" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762123913395_pasted_1762123908749.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762123914854_pasted_1762123912180.webp</v>
       </c>
     </row>
     <row r="1145" xml:space="preserve">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -30338,10 +30338,10 @@
         <v/>
       </c>
       <c r="G1146" t="str">
-        <v>222222</v>
+        <v/>
       </c>
       <c r="H1146" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762123770823_pasted_1762123765387.webp</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1146"/>
+  <dimension ref="A1:H1145"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30318,35 +30318,9 @@
         <v/>
       </c>
     </row>
-    <row r="1146">
-      <c r="A1146" t="str">
-        <v>HDSD</v>
-      </c>
-      <c r="B1146" t="str">
-        <v/>
-      </c>
-      <c r="C1146" t="str">
-        <v/>
-      </c>
-      <c r="D1146" t="str">
-        <v/>
-      </c>
-      <c r="E1146" t="str">
-        <v/>
-      </c>
-      <c r="F1146" t="str">
-        <v/>
-      </c>
-      <c r="G1146" t="str">
-        <v/>
-      </c>
-      <c r="H1146" t="str">
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1146"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1145"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -9189,10 +9189,10 @@
         <v/>
       </c>
       <c r="G338" t="str">
-        <v/>
+        <v>111111111111</v>
       </c>
       <c r="H338" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762131116332_pasted_1762131109538.webp</v>
       </c>
     </row>
     <row r="339">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -7245,7 +7245,7 @@
         <v/>
       </c>
     </row>
-    <row r="264">
+    <row r="264" xml:space="preserve">
       <c r="A264" t="str">
         <v xml:space="preserve">Nội trú </v>
       </c>
@@ -7264,11 +7264,40 @@
       <c r="F264" t="str">
         <v/>
       </c>
-      <c r="G264" t="str">
-        <v/>
+      <c r="G264" t="str" xml:space="preserve">
+        <v xml:space="preserve">Hướng dẫn sử dụng phiếu theo dõi và chăm sóc
+Thông tin người bệnh:
+1. Ghi chính xác và thống nhất giữa các phiếu trong Hồ sơ.
+Nhận định, theo dõi:
+1. Chỉ số sinh tồn, sinh trắc: ghi giá trị bằng số.
+2. Toàn thân, hô hấp, tuần hoàn, dinh dưỡng, giấc ngủ, nghỉ ngơi, vệ sinh cá nhân, tinh thần, vận động, PHCN, GDSK: ghi rõ nội dung nhận định hoặc xây dựng các nội dung nhận định và mã hóa.
+VD: Da, niêm mạc có thể ghi rõ nội dung hoặc mã hóa là: 01. Hồng; 02. Vàng; 03 Nhợt nhạt
+Chú ý: để tạo thuận lợi cho việc nhận định và tùy thuộc nội dung nhận định, việc xây dựng nên có 1 mã “Bình thường” và các mã bệnh lý. 
+3. Một số thang đo gợi ý áp dụng bao gồm:
+	Đau (Với trẻ sơ sinh sử dụng thang điểm như NIPS (Neonatal Infant Pain Scale - Thang đo mức độ đau của trẻ sơ sinh); với trẻ dưới 7 tuổi sử dụng thang điểm như FLACC ((Face, Legs, Actitivity, Cry, Consolability - Mặt, chân, hoạt động, khóc, Đáp ứng khi được dỗ dành); với trẻ trên 7 tuổi sử dụng thang điểm như VAS (Visual Analog Scale – Thang đo trực quan tương ứng).
+	Phù: Mức độ phù sử dụng thang điểm đánh giá như phân loại từ 1 - 4 (Độ 1: ấn lõm &lt; 2 mm, biến mất ngay lập tức; Độ 2: ấn lõm 2 - 4 mm, biến mất sau 10 – 15 giây; Độ 3: ấn lõm 4 - 6 mm, có thể tồn tại  &gt; 1 phút; Độ 4: ấn lõm 6 - 8 mm, có thể tồn tại từ 2 – 5 phút).
+	Nguy cơ té ngã (sử dụng thang điểm như Morse).
+	Nguy cơ loét do tỳ đè (sử dụng thang điểm đánh giá như Braden).
+	Cảnh báo sớm (sử dụng bảng điểm cảnh báo sớm như NEWS2).
+	Đánh giá mức độ viêm tĩnh mạch (sử dụng thang điểm như VIP Score).
+Can thiệp điều dưỡng:
+Ghi rõ nội dung can thiệp hoặc xây dựng các nội dung can thiệp và mã hóa (Cột ngoài cùng bên phải hoặc trên trang khác tùy theo số lượng mã hóa).
+VD: Ký hiệu theo phân theo các nhóm như Hô hấp có các mã H01. Hướng dẫn ho khạc đờm, vỗ lưng, giữ ấm cổ ngực; H02 - Cung cấp Oxy...; Tuần hoàn có các mã T01- Nằm đầu thấp, T02 - Hạn chế vận động...
+Hoặc ký hiệu theo thứ tự quy ước như 01 - Theo dõi DHST, 02- Thở oxy, 03- Vỗ rung, uống nước ấm…
+Bàn giao
+Xây dựng các nội dung bàn giao theo đặc thù chung của cơ sở khám bệnh, chữa bệnh.
+VD: Bàn giao hồ sơ, phim, người bệnh,…
+Chẩn đoán điều dưỡng/Đánh giá mục tiêu:
+1. Xây dựng chẩn đoán điều dưỡng và đưa ra các mục tiêu chăm sóc đối với từng chẩn đoán. Chẩn đoán điều dưỡng được xây dựng khi người bệnh nhập khoa và sẽ cập nhật khi người bệnh có phát sinh những vấn đề hoặc nhu cầu mới.
+2. Thực hiện đánh giá/lượng giá mục tiêu chăm sóc: đánh dấu (X) vào các ô mục tiêu sau khi đã hoàn thành.
+Ví dụ: Chẩn đoán ĐD “người bệnh khó chịu do vệ sinh cá nhân kém”.
+⬜ Mục tiêu “người bệnh vệ sinh cá nhân sạch sẽ”: chưa hoàn thành.
+❎ Mục tiêu “người bệnh vệ sinh cá nhân sạch sẽ”: hoàn thành.
+3. Mục tiêu chưa hoàn thành (Không đánh dấu (X)): sẽ tiếp tục thực hiện hoặc thay đổi mục tiêu theo vấn đề hiện tại của người bệnh. 
+4. Trường hợp khi người bệnh xuất viện nhưng các mục tiêu chăm sóc chưa hoàn thành, điều dưỡng tiến hành tư vấn và hướng dẫn người bệnh tiếp tục chăm sóc tại nhà.</v>
       </c>
       <c r="H264" t="str">
-        <v/>
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762133076151_pasted_1762133051528.webp</v>
       </c>
     </row>
     <row r="265">

--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1145"/>
+  <dimension ref="A1:H1146"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30347,9 +30347,51 @@
         <v/>
       </c>
     </row>
+    <row r="1146" xml:space="preserve">
+      <c r="A1146" t="str">
+        <v>Hướng dẫn liên thông HIS - LIS</v>
+      </c>
+      <c r="B1146" t="str">
+        <v/>
+      </c>
+      <c r="C1146" t="str">
+        <v/>
+      </c>
+      <c r="D1146" t="str">
+        <v/>
+      </c>
+      <c r="E1146" t="str">
+        <v/>
+      </c>
+      <c r="F1146" t="str">
+        <v/>
+      </c>
+      <c r="G1146" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bước 1: Tạo Tài khoản tích hợp trên his:    
+  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC13_QL_NguoiDung  
+  + cấu hình "Mức truy cập": Nghiệp vụ  
+  + Loại tài khoản: Tích hợp  
+Bước 2: Phần quyền dữ liệu người dùng:    
+  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC10_user_role  
+  + Theo quyền dữ liệu được cấu hình theo khoa phòng thực hiện  
+Bước 3: Cấu hình tham số:    
+  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC02_CAUHINHLIS_UPDATE_STATUS
+LIS_DELETE_REQUEST  api/v2/DeleteRequest  Địa chỉ service để xóa chỉ định khỏi hệ thống LIS              
+LIS_SEND_REQUEST  api/v2/SendRequest  Địa chỉ service để gửi chỉ định sang hệ thống LIS              
+LIS_GET_RESULT_SET  api/v2/GetResultSet  Địa chỉ service lấy kết quả từ hệ thống LIS              
+LIS_SERVICE_DOMAIN_NAME  https://lisdkhnm.vnptsoftware.vn/  Tên địa chỉ domain service LIS              
+LIS_SECRET_KEY  123456  Mật khẩu truy cập hệ thống VNPT LIS              
+LIS_CONNECTION_TYPE = 1
+LIS_DIACHI_BENHNHAN = bhyt hoặc bn
+</v>
+      </c>
+      <c r="H1146" t="str">
+        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762134705868_pasted_1762134704400.webp</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1145"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1146"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1146"/>
+  <dimension ref="A1:H1145"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30347,51 +30347,9 @@
         <v/>
       </c>
     </row>
-    <row r="1146" xml:space="preserve">
-      <c r="A1146" t="str">
-        <v>Hướng dẫn liên thông HIS - LIS</v>
-      </c>
-      <c r="B1146" t="str">
-        <v/>
-      </c>
-      <c r="C1146" t="str">
-        <v/>
-      </c>
-      <c r="D1146" t="str">
-        <v/>
-      </c>
-      <c r="E1146" t="str">
-        <v/>
-      </c>
-      <c r="F1146" t="str">
-        <v/>
-      </c>
-      <c r="G1146" t="str" xml:space="preserve">
-        <v xml:space="preserve">Bước 1: Tạo Tài khoản tích hợp trên his:    
-  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC13_QL_NguoiDung  
-  + cấu hình "Mức truy cập": Nghiệp vụ  
-  + Loại tài khoản: Tích hợp  
-Bước 2: Phần quyền dữ liệu người dùng:    
-  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC10_user_role  
-  + Theo quyền dữ liệu được cấu hình theo khoa phòng thực hiện  
-Bước 3: Cấu hình tham số:    
-  + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC02_CAUHINHLIS_UPDATE_STATUS
-LIS_DELETE_REQUEST  api/v2/DeleteRequest  Địa chỉ service để xóa chỉ định khỏi hệ thống LIS              
-LIS_SEND_REQUEST  api/v2/SendRequest  Địa chỉ service để gửi chỉ định sang hệ thống LIS              
-LIS_GET_RESULT_SET  api/v2/GetResultSet  Địa chỉ service lấy kết quả từ hệ thống LIS              
-LIS_SERVICE_DOMAIN_NAME  https://lisdkhnm.vnptsoftware.vn/  Tên địa chỉ domain service LIS              
-LIS_SECRET_KEY  123456  Mật khẩu truy cập hệ thống VNPT LIS              
-LIS_CONNECTION_TYPE = 1
-LIS_DIACHI_BENHNHAN = bhyt hoặc bn
-</v>
-      </c>
-      <c r="H1146" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762134705868_pasted_1762134704400.webp</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1146"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1145"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data_hisl2.xlsx
+++ b/data_hisl2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1145"/>
+  <dimension ref="A1:H1144"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30280,9 +30280,9 @@
         <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/Screenshot_1762017495834.webp</v>
       </c>
     </row>
-    <row r="1144">
+    <row r="1144" xml:space="preserve">
       <c r="A1144" t="str">
-        <v>Hướng dẫn sử dụng</v>
+        <v>Hướng dẫn sử dụng liên thông HIS - LIS</v>
       </c>
       <c r="B1144" t="str">
         <v/>
@@ -30299,33 +30299,7 @@
       <c r="F1144" t="str">
         <v/>
       </c>
-      <c r="G1144" t="str">
-        <v>222222222222</v>
-      </c>
-      <c r="H1144" t="str">
-        <v>https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762123913395_pasted_1762123908749.webp;https://raw.githack.com/huongnxhni/image_hisl2/main/thumbs/1762123914854_pasted_1762123912180.webp</v>
-      </c>
-    </row>
-    <row r="1145" xml:space="preserve">
-      <c r="A1145" t="str">
-        <v>Hướng dẫn sử dụng liên thông HIS - LIS</v>
-      </c>
-      <c r="B1145" t="str">
-        <v/>
-      </c>
-      <c r="C1145" t="str">
-        <v/>
-      </c>
-      <c r="D1145" t="str">
-        <v/>
-      </c>
-      <c r="E1145" t="str">
-        <v/>
-      </c>
-      <c r="F1145" t="str">
-        <v/>
-      </c>
-      <c r="G1145" t="str" xml:space="preserve">
+      <c r="G1144" t="str" xml:space="preserve">
         <v xml:space="preserve">Bước 1: Tạo Tài khoản tích hợp trên his:    
   + Link chức năng: /vnpthis/main/manager.jsp?func=../danhmuc/DMC13_QL_NguoiDung  
   + cấu hình "Mức truy cập": Nghiệp vụ  
@@ -30343,13 +30317,13 @@
 LIS_CONNECTION_TYPE = 1
 LIS_DIACHI_BENHNHAN = bhyt hoặc bn</v>
       </c>
-      <c r="H1145" t="str">
+      <c r="H1144" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1145"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1144"/>
   </ignoredErrors>
 </worksheet>
 </file>